--- a/tidy_formats/mosquito_data3.xlsx
+++ b/tidy_formats/mosquito_data3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Research/papers/OC_Figures/Old_Collections_Figures/tidy_formats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FEF4E5-963C-FD45-BB07-9F32F8E52130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9BC9C7-7442-7B48-8DB0-968F26376A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36900" yWindow="720" windowWidth="25320" windowHeight="22380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1753,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M425"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N410" sqref="N410"/>
+    <sheetView tabSelected="1" topLeftCell="A392" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O423" sqref="O423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1838,8 +1838,8 @@
         <v>13</v>
       </c>
       <c r="M2">
-        <f>F2-J$80</f>
-        <v>0.44983832041426908</v>
+        <f>J$80-F2</f>
+        <v>-0.44983832041426908</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1880,8 +1880,8 @@
         <v>13</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="0">F3-J$80</f>
-        <v>3.9682480494181682</v>
+        <f>J$80-F3</f>
+        <v>-3.9682480494181682</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1922,8 +1922,8 @@
         <v>13</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
-        <v>7.0964676539102669</v>
+        <f t="shared" ref="M4:M67" si="0">J$80-F4</f>
+        <v>-7.0964676539102669</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>-1.7552874883016294</v>
+        <v>1.7552874883016294</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>-3.4068034489949319</v>
+        <v>3.4068034489949319</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>1.6296612421671703</v>
+        <v>-1.6296612421671703</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>2.7840458552042584</v>
+        <v>-2.7840458552042584</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>0.92338911692301906</v>
+        <v>-0.92338911692301906</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>1.9295708338419608</v>
+        <v>-1.9295708338419608</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>2.8225580851213294E-3</v>
+        <v>-2.8225580851213294E-3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>-0.59904130299885949</v>
+        <v>0.59904130299885949</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>-1.2937224706013986</v>
+        <v>1.2937224706013986</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>1.6749931971232108</v>
+        <v>-1.6749931971232108</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>7.6871430079142229</v>
+        <v>-7.6871430079142229</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>-0.45018609364828066</v>
+        <v>0.45018609364828066</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>2.3771378199259381</v>
+        <v>-2.3771378199259381</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
-        <v>-3.5209773381551095</v>
+        <v>3.5209773381551095</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
-        <v>-0.63660462697347953</v>
+        <v>0.63660462697347953</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
-        <v>-1.3288806279500314</v>
+        <v>1.3288806279500314</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>0.25536314646403113</v>
+        <v>-0.25536314646403113</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
-        <v>-8.1844647725429098E-2</v>
+        <v>8.1844647725429098E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
-        <v>-1.2680266698201592</v>
+        <v>1.2680266698201592</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="M24">
         <f t="shared" si="0"/>
-        <v>-0.68503411610921106</v>
+        <v>0.68503411610921106</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="M25">
         <f t="shared" si="0"/>
-        <v>-2.0172732671101912</v>
+        <v>2.0172732671101912</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="M26">
         <f t="shared" si="0"/>
-        <v>7.5171829859415666</v>
+        <v>-7.5171829859415666</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="M27">
         <f t="shared" si="0"/>
-        <v>6.8300339380900006</v>
+        <v>-6.8300339380900006</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="M28">
         <f t="shared" si="0"/>
-        <v>-0.3865550359090193</v>
+        <v>0.3865550359090193</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="M29">
         <f t="shared" si="0"/>
-        <v>-0.37224610646565992</v>
+        <v>0.37224610646565992</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="M30">
         <f t="shared" si="0"/>
-        <v>0.73783079783121863</v>
+        <v>-0.73783079783121863</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>-0.81937821706135949</v>
+        <v>0.81937821706135949</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="M32">
         <f t="shared" si="0"/>
-        <v>6.1238457361857108</v>
+        <v>-6.1238457361857108</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="M33">
         <f t="shared" si="0"/>
-        <v>3.3703495661417584</v>
+        <v>-3.3703495661417584</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="M34">
         <f t="shared" si="0"/>
-        <v>4.9958531061808209</v>
+        <v>-4.9958531061808209</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="M35">
         <f t="shared" si="0"/>
-        <v>1.2919632593790702</v>
+        <v>-1.2919632593790702</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="M36">
         <f t="shared" si="0"/>
-        <v>1.3276306788126604</v>
+        <v>-1.3276306788126604</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="M37">
         <f t="shared" si="0"/>
-        <v>1.7661110560099296</v>
+        <v>-1.7661110560099296</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="M38">
         <f t="shared" si="0"/>
-        <v>2.7068058649698905</v>
+        <v>-2.7068058649698905</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="M39">
         <f t="shared" si="0"/>
-        <v>2.0199028650919608</v>
+        <v>-2.0199028650919608</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="M40">
         <f t="shared" si="0"/>
-        <v>-0.22605927785237867</v>
+        <v>0.22605927785237867</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="M41">
         <f t="shared" si="0"/>
-        <v>-0.20603402455648023</v>
+        <v>0.20603402455648023</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="M42">
         <f t="shared" si="0"/>
-        <v>1.9595867792765205</v>
+        <v>-1.9595867792765205</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="M43">
         <f t="shared" si="0"/>
-        <v>-1.6290076573689802</v>
+        <v>1.6290076573689802</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="M44">
         <f t="shared" si="0"/>
-        <v>2.3099972407023088</v>
+        <v>-2.3099972407023088</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="M45">
         <f t="shared" si="0"/>
-        <v>2.9845749537150006</v>
+        <v>-2.9845749537150006</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="M46">
         <f t="shared" si="0"/>
-        <v>5.8756443659464495</v>
+        <v>-5.8756443659464495</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="M47">
         <f t="shared" si="0"/>
-        <v>7.7490975062052385</v>
+        <v>-7.7490975062052385</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="M48">
         <f t="shared" si="0"/>
-        <v>5.4567848841349296</v>
+        <v>-5.4567848841349296</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="M49">
         <f t="shared" si="0"/>
-        <v>5.1938168207804303</v>
+        <v>-5.1938168207804303</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="M50">
         <f t="shared" si="0"/>
-        <v>5.7755448023478202</v>
+        <v>-5.7755448023478202</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="M51">
         <f t="shared" si="0"/>
-        <v>1.6758972803751604</v>
+        <v>-1.6758972803751604</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="M52">
         <f t="shared" si="0"/>
-        <v>2.8019997278849296</v>
+        <v>-2.8019997278849296</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="M53">
         <f t="shared" si="0"/>
-        <v>-0.35768922170003137</v>
+        <v>0.35768922170003137</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="M54">
         <f t="shared" si="0"/>
-        <v>1.2257286707560198</v>
+        <v>-1.2257286707560198</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="M55">
         <f t="shared" si="0"/>
-        <v>-0.57500298817953066</v>
+        <v>0.57500298817953066</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
-        <v>5.523832003275551</v>
+        <v>-5.523832003275551</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="M57">
         <f t="shared" si="0"/>
-        <v>4.1884094874064104</v>
+        <v>-4.1884094874064104</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="M58">
         <f t="shared" si="0"/>
-        <v>8.7070938746134416</v>
+        <v>-8.7070938746134416</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="M59">
         <f t="shared" si="0"/>
-        <v>-0.66095574696858961</v>
+        <v>0.66095574696858961</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="M60">
         <f t="shared" si="0"/>
-        <v>-0.25295670827230055</v>
+        <v>0.25295670827230055</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="M61">
         <f t="shared" si="0"/>
-        <v>0.8459278742472307</v>
+        <v>-0.8459278742472307</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="M62">
         <f t="shared" si="0"/>
-        <v>6.3060890833536796</v>
+        <v>-6.3060890833536796</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="M63">
         <f t="shared" si="0"/>
-        <v>2.7272431055704693</v>
+        <v>-2.7272431055704693</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="M64">
         <f t="shared" si="0"/>
-        <v>4.0397812525431291</v>
+        <v>-4.0397812525431291</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="M65">
         <f t="shared" si="0"/>
-        <v>1.9828278223673514</v>
+        <v>-1.9828278223673514</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="M66">
         <f t="shared" si="0"/>
-        <v>2.6018120447794608</v>
+        <v>-2.6018120447794608</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -4568,8 +4568,8 @@
         <v>13</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M130" si="1">F67-J$80</f>
-        <v>3.164395968119301</v>
+        <f t="shared" si="0"/>
+        <v>-3.164395968119301</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -4610,8 +4610,8 @@
         <v>13</v>
       </c>
       <c r="M68">
-        <f t="shared" si="1"/>
-        <v>2.2314793268839495</v>
+        <f t="shared" ref="M68:M131" si="1">J$80-F68</f>
+        <v>-2.2314793268839495</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="M69">
         <f t="shared" si="1"/>
-        <v>0.61346213022867957</v>
+        <v>-0.61346213022867957</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="M70">
         <f t="shared" si="1"/>
-        <v>1.9063374201456682</v>
+        <v>-1.9063374201456682</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="M71">
         <f t="shared" si="1"/>
-        <v>6.0517975489298408</v>
+        <v>-6.0517975489298408</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="M72">
         <f t="shared" si="1"/>
-        <v>2.8209644953409807</v>
+        <v>-2.8209644953409807</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="M73">
         <f t="shared" si="1"/>
-        <v>0.85631338755289121</v>
+        <v>-0.85631338755289121</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="M74">
         <f t="shared" si="1"/>
-        <v>1.502957979838051</v>
+        <v>-1.502957979838051</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="M75">
         <f t="shared" si="1"/>
-        <v>3.6972309748331611</v>
+        <v>-3.6972309748331611</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="M76">
         <f t="shared" si="1"/>
-        <v>5.9245011011759381</v>
+        <v>-5.9245011011759381</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="M77">
         <f t="shared" si="1"/>
-        <v>4.1671845118204693</v>
+        <v>-4.1671845118204693</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="M78">
         <f t="shared" si="1"/>
-        <v>2.8506657282511405</v>
+        <v>-2.8506657282511405</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="M79">
         <f t="shared" si="1"/>
-        <v>5.0429398218790702</v>
+        <v>-5.0429398218790702</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="M80">
         <f t="shared" si="1"/>
-        <v>-1.0590575536092288</v>
+        <v>1.0590575536092288</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="M81">
         <f t="shared" si="1"/>
-        <v>3.7850205103556682</v>
+        <v>-3.7850205103556682</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="M82">
         <f t="shared" si="1"/>
-        <v>0.85122076670327118</v>
+        <v>-0.85122076670327118</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="M83">
         <f t="shared" si="1"/>
-        <v>-1.6410888036092288</v>
+        <v>1.6410888036092288</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="M84">
         <f t="shared" si="1"/>
-        <v>-0.75956757863362867</v>
+        <v>0.75956757863362867</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="M85">
         <f t="shared" si="1"/>
-        <v>-1.1765273412068318</v>
+        <v>1.1765273412068318</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="M86">
         <f t="shared" si="1"/>
-        <v>-1.0630782445271798</v>
+        <v>1.0630782445271798</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="M87">
         <f t="shared" si="1"/>
-        <v>-1.020113309224449</v>
+        <v>1.020113309224449</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="M88">
         <f t="shared" si="1"/>
-        <v>0.92388502756753965</v>
+        <v>-0.92388502756753965</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="M89">
         <f t="shared" si="1"/>
-        <v>0.47079435984293028</v>
+        <v>-0.47079435984293028</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="M90">
         <f t="shared" si="1"/>
-        <v>0.47863547007242957</v>
+        <v>-0.47863547007242957</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="M91">
         <f t="shared" si="1"/>
-        <v>-4.8522914250691791</v>
+        <v>4.8522914250691791</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="M92">
         <f t="shared" si="1"/>
-        <v>-0.59731705983480055</v>
+        <v>0.59731705983480055</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="M93">
         <f t="shared" si="1"/>
-        <v>1.1141869227091483</v>
+        <v>-1.1141869227091483</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="M94">
         <f t="shared" si="1"/>
-        <v>-1.94655068715414</v>
+        <v>1.94655068715414</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="M95">
         <f t="shared" si="1"/>
-        <v>-2.9091437657674213</v>
+        <v>2.9091437657674213</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -5787,7 +5787,7 @@
       </c>
       <c r="M96">
         <f t="shared" si="1"/>
-        <v>-3.0133822758992501</v>
+        <v>3.0133822758992501</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="M97">
         <f t="shared" si="1"/>
-        <v>-2.042335828145351</v>
+        <v>2.042335828145351</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="M98">
         <f t="shared" si="1"/>
-        <v>-0.79556115468342981</v>
+        <v>0.79556115468342981</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="M99">
         <f t="shared" si="1"/>
-        <v>0.78626219431559008</v>
+        <v>-0.78626219431559008</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="M100">
         <f t="shared" si="1"/>
-        <v>-3.6285718282069723E-2</v>
+        <v>3.6285718282069723E-2</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="M101">
         <f t="shared" si="1"/>
-        <v>-1.3023532231648787</v>
+        <v>1.3023532231648787</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="M102">
         <f t="shared" si="1"/>
-        <v>7.268301645914832E-2</v>
+        <v>-7.268301645914832E-2</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="M103">
         <f t="shared" si="1"/>
-        <v>0.80326048533121863</v>
+        <v>-0.80326048533121863</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="M104">
         <f t="shared" si="1"/>
-        <v>1.9885918299357108</v>
+        <v>-1.9885918299357108</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="M105">
         <f t="shared" si="1"/>
-        <v>4.6201969782511405</v>
+        <v>-4.6201969782511405</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="M106">
         <f t="shared" si="1"/>
-        <v>3.5761105219523088</v>
+        <v>-3.5761105219523088</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="M107">
         <f t="shared" si="1"/>
-        <v>-2.5758651097615619</v>
+        <v>2.5758651097615619</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="M108">
         <f t="shared" si="1"/>
-        <v>0.49602858225503965</v>
+        <v>-0.49602858225503965</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="M109">
         <f t="shared" si="1"/>
-        <v>3.22746054331461</v>
+        <v>-3.22746054331461</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="M110">
         <f t="shared" si="1"/>
-        <v>-0.37856896718342981</v>
+        <v>0.37856896718342981</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="M111">
         <f t="shared" si="1"/>
-        <v>2.3022915522257499</v>
+        <v>-2.3022915522257499</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="M112">
         <f t="shared" si="1"/>
-        <v>0.17798582712809008</v>
+        <v>-0.17798582712809008</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="M113">
         <f t="shared" si="1"/>
-        <v>-2.9434855779012103</v>
+        <v>2.9434855779012103</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="M114">
         <f t="shared" si="1"/>
-        <v>0.19925276438394945</v>
+        <v>-0.19925276438394945</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="M115">
         <f t="shared" si="1"/>
-        <v>0.19437376658121863</v>
+        <v>-0.19437376658121863</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="M116">
         <f t="shared" si="1"/>
-        <v>-1.5402243932088311</v>
+        <v>1.5402243932088311</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -6669,7 +6669,7 @@
       </c>
       <c r="M117">
         <f t="shared" si="1"/>
-        <v>-1.2524836858113595</v>
+        <v>1.2524836858113595</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="M118">
         <f t="shared" si="1"/>
-        <v>0.55610434214273852</v>
+        <v>-0.55610434214273852</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -6753,7 +6753,7 @@
       </c>
       <c r="M119">
         <f t="shared" si="1"/>
-        <v>-1.5954860051473005</v>
+        <v>1.5954860051473005</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="M120">
         <f t="shared" si="1"/>
-        <v>-1.7127784093221088</v>
+        <v>1.7127784093221088</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="M121">
         <f t="shared" si="1"/>
-        <v>-2.2856410344441791</v>
+        <v>2.2856410344441791</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="M122">
         <f t="shared" si="1"/>
-        <v>0.87832991282144945</v>
+        <v>-0.87832991282144945</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="M123">
         <f t="shared" si="1"/>
-        <v>-1.0099929173787494</v>
+        <v>1.0099929173787494</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="M124">
         <f t="shared" si="1"/>
-        <v>-0.46936448415121035</v>
+        <v>0.46936448415121035</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="M125">
         <f t="shared" si="1"/>
-        <v>-4.60450967152914</v>
+        <v>4.60450967152914</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="M126">
         <f t="shared" si="1"/>
-        <v>-0.93671449025471887</v>
+        <v>0.93671449025471887</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="M127">
         <f t="shared" si="1"/>
-        <v>-1.8250830968221088</v>
+        <v>1.8250830968221088</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="M128">
         <f t="shared" si="1"/>
-        <v>0.93043867746989051</v>
+        <v>-0.93043867746989051</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="M129">
         <f t="shared" si="1"/>
-        <v>1.6655594507853202</v>
+        <v>-1.6655594507853202</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="M130">
         <f t="shared" si="1"/>
-        <v>-1.0021527608241598E-2</v>
+        <v>1.0021527608241598E-2</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -7256,8 +7256,8 @@
         <v>13</v>
       </c>
       <c r="M131">
-        <f t="shared" ref="M131:M157" si="2">F131-J$80</f>
-        <v>-1.0462458928426095</v>
+        <f t="shared" si="1"/>
+        <v>1.0462458928426095</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
@@ -7298,8 +7298,8 @@
         <v>13</v>
       </c>
       <c r="M132">
-        <f t="shared" si="2"/>
-        <v>-0.62437089284260949</v>
+        <f t="shared" ref="M132:M157" si="2">J$80-F132</f>
+        <v>0.62437089284260949</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="M133">
         <f t="shared" si="2"/>
-        <v>-2.3761561711629291</v>
+        <v>2.3761561711629291</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="M134">
         <f t="shared" si="2"/>
-        <v>5.4228970209757499</v>
+        <v>-5.4228970209757499</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
@@ -7425,7 +7425,7 @@
       </c>
       <c r="M135">
         <f t="shared" si="2"/>
-        <v>4.9692322413126604</v>
+        <v>-4.9692322413126604</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
@@ -7467,7 +7467,7 @@
       </c>
       <c r="M136">
         <f t="shared" si="2"/>
-        <v>4.3522297541300397</v>
+        <v>-4.3522297541300397</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="M137">
         <f t="shared" si="2"/>
-        <v>-0.88719971974690992</v>
+        <v>0.88719971974690992</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="M138">
         <f t="shared" si="2"/>
-        <v>-1.0549586613973005</v>
+        <v>1.0549586613973005</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
@@ -7593,7 +7593,7 @@
       </c>
       <c r="M139">
         <f t="shared" si="2"/>
-        <v>-0.83253320058187086</v>
+        <v>0.83253320058187086</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="M140">
         <f t="shared" si="2"/>
-        <v>2.9859654108683209</v>
+        <v>-2.9859654108683209</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="M141">
         <f t="shared" si="2"/>
-        <v>6.9507652918497698</v>
+        <v>-6.9507652918497698</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="M142">
         <f t="shared" si="2"/>
-        <v>4.0743157068888287</v>
+        <v>-4.0743157068888287</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="M143">
         <f t="shared" si="2"/>
-        <v>0.95911375681559008</v>
+        <v>-0.95911375681559008</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="M144">
         <f t="shared" si="2"/>
-        <v>1.1922184626261405</v>
+        <v>-1.1922184626261405</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="M145">
         <f t="shared" si="2"/>
-        <v>0.62261358896891039</v>
+        <v>-0.62261358896891039</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="M146">
         <f t="shared" si="2"/>
-        <v>1.5697495142618791</v>
+        <v>-1.5697495142618791</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
@@ -7929,7 +7929,7 @@
       </c>
       <c r="M147">
         <f t="shared" si="2"/>
-        <v>1.6417690912882499</v>
+        <v>-1.6417690912882499</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="M148">
         <f t="shared" si="2"/>
-        <v>0.16803900400796934</v>
+        <v>-0.16803900400796934</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
@@ -8013,7 +8013,7 @@
       </c>
       <c r="M149">
         <f t="shared" si="2"/>
-        <v>-1.7532008488973005</v>
+        <v>1.7532008488973005</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
@@ -8055,7 +8055,7 @@
       </c>
       <c r="M150">
         <f t="shared" si="2"/>
-        <v>-0.39300950368246035</v>
+        <v>0.39300950368246035</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="M151">
         <f t="shared" si="2"/>
-        <v>-1.9823268254598005</v>
+        <v>1.9823268254598005</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="M152">
         <f t="shared" si="2"/>
-        <v>-0.41139062245687086</v>
+        <v>0.41139062245687086</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="M153">
         <f t="shared" si="2"/>
-        <v>4.4028202692667584</v>
+        <v>-4.4028202692667584</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="M154">
         <f t="shared" si="2"/>
-        <v>0.23473517100016039</v>
+        <v>-0.23473517100016039</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="M155">
         <f t="shared" si="2"/>
-        <v>-2.1860049565633091</v>
+        <v>2.1860049565633091</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="M156">
         <f t="shared" si="2"/>
-        <v>-0.79841073354085168</v>
+        <v>0.79841073354085168</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
@@ -8349,7 +8349,7 @@
       </c>
       <c r="M157">
         <f t="shared" si="2"/>
-        <v>1.1598660151163784</v>
+        <v>-1.1598660151163784</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
@@ -8390,8 +8390,8 @@
         <v>174</v>
       </c>
       <c r="M158">
-        <f>F158-J$209</f>
-        <v>-2.1420497894287713</v>
+        <f>J$209-F158</f>
+        <v>2.1420497894287713</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
@@ -8432,8 +8432,8 @@
         <v>174</v>
       </c>
       <c r="M159">
-        <f t="shared" ref="M159:M222" si="3">F159-J$209</f>
-        <v>5.0598878860473278</v>
+        <f>J$209-F159</f>
+        <v>-5.0598878860473278</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
@@ -8474,8 +8474,8 @@
         <v>174</v>
       </c>
       <c r="M160">
-        <f t="shared" si="3"/>
-        <v>10.12926197052003</v>
+        <f t="shared" ref="M160:M223" si="3">J$209-F160</f>
+        <v>-10.12926197052003</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="M161">
         <f t="shared" si="3"/>
-        <v>2.1175355911254279</v>
+        <v>-2.1175355911254279</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
@@ -8559,7 +8559,7 @@
       </c>
       <c r="M162">
         <f t="shared" si="3"/>
-        <v>-1.9153928756713725</v>
+        <v>1.9153928756713725</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
@@ -8601,7 +8601,7 @@
       </c>
       <c r="M163">
         <f t="shared" si="3"/>
-        <v>1.8206720352172283</v>
+        <v>-1.8206720352172283</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="M164">
         <f t="shared" si="3"/>
-        <v>1.1006307601928285</v>
+        <v>-1.1006307601928285</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
@@ -8685,7 +8685,7 @@
       </c>
       <c r="M165">
         <f t="shared" si="3"/>
-        <v>15.518198966979931</v>
+        <v>-15.518198966979931</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="M166">
         <f t="shared" si="3"/>
-        <v>1.4814271926879279</v>
+        <v>-1.4814271926879279</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="M167">
         <f t="shared" si="3"/>
-        <v>1.3893594741821289</v>
+        <v>-1.3893594741821289</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
@@ -8811,7 +8811,7 @@
       </c>
       <c r="M168">
         <f t="shared" si="3"/>
-        <v>4.0419683456420294</v>
+        <v>-4.0419683456420294</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="M169">
         <f t="shared" si="3"/>
-        <v>9.7045640945434286</v>
+        <v>-9.7045640945434286</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="M170">
         <f t="shared" si="3"/>
-        <v>6.4381856918335281</v>
+        <v>-6.4381856918335281</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="M171">
         <f t="shared" si="3"/>
-        <v>4.7403535842895295</v>
+        <v>-4.7403535842895295</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="M172">
         <f t="shared" si="3"/>
-        <v>2.03995609283443</v>
+        <v>-2.03995609283443</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
@@ -9021,7 +9021,7 @@
       </c>
       <c r="M173">
         <f t="shared" si="3"/>
-        <v>-0.42541408538817294</v>
+        <v>0.42541408538817294</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="M174">
         <f t="shared" si="3"/>
-        <v>2.2594404220581303</v>
+        <v>-2.2594404220581303</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
@@ -9105,7 +9105,7 @@
       </c>
       <c r="M175">
         <f t="shared" si="3"/>
-        <v>1.2738389968872283</v>
+        <v>-1.2738389968872283</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="M176">
         <f t="shared" si="3"/>
-        <v>3.282822608947729</v>
+        <v>-3.282822608947729</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="M177">
         <f t="shared" si="3"/>
-        <v>2.72772121429443</v>
+        <v>-2.72772121429443</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="M178">
         <f t="shared" si="3"/>
-        <v>0.5996961593628285</v>
+        <v>-0.5996961593628285</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.2">
@@ -9273,7 +9273,7 @@
       </c>
       <c r="M179">
         <f t="shared" si="3"/>
-        <v>-1.3320379257202717</v>
+        <v>1.3320379257202717</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="M180">
         <f t="shared" si="3"/>
-        <v>4.2987413406372283</v>
+        <v>-4.2987413406372283</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="M181">
         <f t="shared" si="3"/>
-        <v>2.2694864273071289</v>
+        <v>-2.2694864273071289</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="M182">
         <f t="shared" si="3"/>
-        <v>1.0629987716674272</v>
+        <v>-1.0629987716674272</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="M183">
         <f t="shared" si="3"/>
-        <v>5.3276052474975302</v>
+        <v>-5.3276052474975302</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
@@ -9483,7 +9483,7 @@
       </c>
       <c r="M184">
         <f t="shared" si="3"/>
-        <v>3.9371061325073278</v>
+        <v>-3.9371061325073278</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="M185">
         <f t="shared" si="3"/>
-        <v>0.47605991363522904</v>
+        <v>-0.47605991363522904</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.2">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="M186">
         <f t="shared" si="3"/>
-        <v>9.6360006332397283</v>
+        <v>-9.6360006332397283</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.2">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="M187">
         <f t="shared" si="3"/>
-        <v>1.4238252639770295</v>
+        <v>-1.4238252639770295</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.2">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="M188">
         <f t="shared" si="3"/>
-        <v>7.3510980606079279</v>
+        <v>-7.3510980606079279</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="M189">
         <f t="shared" si="3"/>
-        <v>11.518691062927228</v>
+        <v>-11.518691062927228</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="M190">
         <f t="shared" si="3"/>
-        <v>14.48867702484133</v>
+        <v>-14.48867702484133</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
@@ -9774,7 +9774,7 @@
       </c>
       <c r="M191">
         <f t="shared" si="3"/>
-        <v>6.9575700759887305</v>
+        <v>-6.9575700759887305</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.2">
@@ -9816,7 +9816,7 @@
       </c>
       <c r="M192">
         <f t="shared" si="3"/>
-        <v>4.4855985641479279</v>
+        <v>-4.4855985641479279</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
@@ -9858,7 +9858,7 @@
       </c>
       <c r="M193">
         <f t="shared" si="3"/>
-        <v>3.9448251724243271</v>
+        <v>-3.9448251724243271</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
@@ -9900,7 +9900,7 @@
       </c>
       <c r="M194">
         <f t="shared" si="3"/>
-        <v>3.25760746002193</v>
+        <v>-3.25760746002193</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
@@ -9942,7 +9942,7 @@
       </c>
       <c r="M195">
         <f t="shared" si="3"/>
-        <v>3.0863351821899272</v>
+        <v>-3.0863351821899272</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.2">
@@ -9984,7 +9984,7 @@
       </c>
       <c r="M196">
         <f t="shared" si="3"/>
-        <v>8.8742551803588299</v>
+        <v>-8.8742551803588299</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.2">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="M197">
         <f t="shared" si="3"/>
-        <v>5.3037576675415288</v>
+        <v>-5.3037576675415288</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.2">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="M198">
         <f t="shared" si="3"/>
-        <v>6.715731620788528</v>
+        <v>-6.715731620788528</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.2">
@@ -10110,7 +10110,7 @@
       </c>
       <c r="M199">
         <f t="shared" si="3"/>
-        <v>3.3167123794555273</v>
+        <v>-3.3167123794555273</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="M200">
         <f t="shared" si="3"/>
-        <v>3.9595613479614293</v>
+        <v>-3.9595613479614293</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.2">
@@ -10194,7 +10194,7 @@
       </c>
       <c r="M201">
         <f t="shared" si="3"/>
-        <v>6.1521806716919301</v>
+        <v>-6.1521806716919301</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.2">
@@ -10236,7 +10236,7 @@
       </c>
       <c r="M202">
         <f t="shared" si="3"/>
-        <v>3.6563501358032298</v>
+        <v>-3.6563501358032298</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.2">
@@ -10278,7 +10278,7 @@
       </c>
       <c r="M203">
         <f t="shared" si="3"/>
-        <v>9.0293645858764293</v>
+        <v>-9.0293645858764293</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.2">
@@ -10320,7 +10320,7 @@
       </c>
       <c r="M204">
         <f t="shared" si="3"/>
-        <v>7.1406068801879279</v>
+        <v>-7.1406068801879279</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
@@ -10362,7 +10362,7 @@
       </c>
       <c r="M205">
         <f t="shared" si="3"/>
-        <v>6.3861608505249272</v>
+        <v>-6.3861608505249272</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.2">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="M206">
         <f t="shared" si="3"/>
-        <v>9.2340192794799272</v>
+        <v>-9.2340192794799272</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.2">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="M207">
         <f t="shared" si="3"/>
-        <v>6.6828775405883292</v>
+        <v>-6.6828775405883292</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.2">
@@ -10488,7 +10488,7 @@
       </c>
       <c r="M208">
         <f t="shared" si="3"/>
-        <v>6.67887210845943</v>
+        <v>-6.67887210845943</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
@@ -10530,7 +10530,7 @@
       </c>
       <c r="M209">
         <f t="shared" si="3"/>
-        <v>-3.0917301177978711</v>
+        <v>3.0917301177978711</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.2">
@@ -10572,7 +10572,7 @@
       </c>
       <c r="M210">
         <f t="shared" si="3"/>
-        <v>5.3957796096801296</v>
+        <v>-5.3957796096801296</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.2">
@@ -10614,7 +10614,7 @@
       </c>
       <c r="M211">
         <f t="shared" si="3"/>
-        <v>-0.21403026580806994</v>
+        <v>0.21403026580806994</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.2">
@@ -10656,7 +10656,7 @@
       </c>
       <c r="M212">
         <f t="shared" si="3"/>
-        <v>-2.7094001770019709</v>
+        <v>2.7094001770019709</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.2">
@@ -10698,7 +10698,7 @@
       </c>
       <c r="M213">
         <f t="shared" si="3"/>
-        <v>2.0451669692993271</v>
+        <v>-2.0451669692993271</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.2">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="M214">
         <f t="shared" si="3"/>
-        <v>-1.4257860183715714</v>
+        <v>1.4257860183715714</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.2">
@@ -10782,7 +10782,7 @@
       </c>
       <c r="M215">
         <f t="shared" si="3"/>
-        <v>-3.3657560348510707</v>
+        <v>3.3657560348510707</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.2">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="M216">
         <f t="shared" si="3"/>
-        <v>-0.95115375518797052</v>
+        <v>0.95115375518797052</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.2">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="M217">
         <f t="shared" si="3"/>
-        <v>-7.6227407455444709</v>
+        <v>7.6227407455444709</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.2">
@@ -10908,7 +10908,7 @@
       </c>
       <c r="M218">
         <f t="shared" si="3"/>
-        <v>-4.2878246307372709</v>
+        <v>4.2878246307372709</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.2">
@@ -10950,7 +10950,7 @@
       </c>
       <c r="M219">
         <f t="shared" si="3"/>
-        <v>-5.5804147720336719</v>
+        <v>5.5804147720336719</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.2">
@@ -10992,7 +10992,7 @@
       </c>
       <c r="M220">
         <f t="shared" si="3"/>
-        <v>-0.20166873931887253</v>
+        <v>0.20166873931887253</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.2">
@@ -11034,7 +11034,7 @@
       </c>
       <c r="M221">
         <f t="shared" si="3"/>
-        <v>-2.3402233123779705</v>
+        <v>2.3402233123779705</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.2">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="M222">
         <f t="shared" si="3"/>
-        <v>-1.5856180191039719</v>
+        <v>1.5856180191039719</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.2">
@@ -11117,8 +11117,8 @@
         <v>174</v>
       </c>
       <c r="M223">
-        <f t="shared" ref="M223:M278" si="4">F223-J$209</f>
-        <v>0.65369129180902874</v>
+        <f t="shared" si="3"/>
+        <v>-0.65369129180902874</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.2">
@@ -11159,8 +11159,8 @@
         <v>174</v>
       </c>
       <c r="M224">
-        <f t="shared" si="4"/>
-        <v>9.1084203720092276</v>
+        <f t="shared" ref="M224:M278" si="4">J$209-F224</f>
+        <v>-9.1084203720092276</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
@@ -11202,7 +11202,7 @@
       </c>
       <c r="M225">
         <f t="shared" si="4"/>
-        <v>10.540936470031728</v>
+        <v>-10.540936470031728</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.2">
@@ -11244,7 +11244,7 @@
       </c>
       <c r="M226">
         <f t="shared" si="4"/>
-        <v>-4.8198242187499716</v>
+        <v>4.8198242187499716</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.2">
@@ -11286,7 +11286,7 @@
       </c>
       <c r="M227">
         <f t="shared" si="4"/>
-        <v>-4.726706504821772</v>
+        <v>4.726706504821772</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.2">
@@ -11328,7 +11328,7 @@
       </c>
       <c r="M228">
         <f t="shared" si="4"/>
-        <v>-0.67683887481686966</v>
+        <v>0.67683887481686966</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.2">
@@ -11370,7 +11370,7 @@
       </c>
       <c r="M229">
         <f t="shared" si="4"/>
-        <v>-1.7219476699829706</v>
+        <v>1.7219476699829706</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.2">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="M230">
         <f t="shared" si="4"/>
-        <v>0.22827243804932706</v>
+        <v>-0.22827243804932706</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.2">
@@ -11454,7 +11454,7 @@
       </c>
       <c r="M231">
         <f t="shared" si="4"/>
-        <v>9.7508306503295294</v>
+        <v>-9.7508306503295294</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.2">
@@ -11496,7 +11496,7 @@
       </c>
       <c r="M232">
         <f t="shared" si="4"/>
-        <v>0.2571859359741282</v>
+        <v>-0.2571859359741282</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.2">
@@ -11538,7 +11538,7 @@
       </c>
       <c r="M233">
         <f t="shared" si="4"/>
-        <v>1.304057121276827</v>
+        <v>-1.304057121276827</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.2">
@@ -11580,7 +11580,7 @@
       </c>
       <c r="M234">
         <f t="shared" si="4"/>
-        <v>4.0250883102417276</v>
+        <v>-4.0250883102417276</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.2">
@@ -11622,7 +11622,7 @@
       </c>
       <c r="M235">
         <f t="shared" si="4"/>
-        <v>6.8639478683471289</v>
+        <v>-6.8639478683471289</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.2">
@@ -11664,7 +11664,7 @@
       </c>
       <c r="M236">
         <f t="shared" si="4"/>
-        <v>-2.9453144073486719</v>
+        <v>2.9453144073486719</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.2">
@@ -11706,7 +11706,7 @@
       </c>
       <c r="M237">
         <f t="shared" si="4"/>
-        <v>-0.74857044219977098</v>
+        <v>0.74857044219977098</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.2">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="M238">
         <f t="shared" si="4"/>
-        <v>3.5282125473022283</v>
+        <v>-3.5282125473022283</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.2">
@@ -11790,7 +11790,7 @@
       </c>
       <c r="M239">
         <f t="shared" si="4"/>
-        <v>-4.1928443908691708</v>
+        <v>4.1928443908691708</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.2">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="M240">
         <f t="shared" si="4"/>
-        <v>-3.238903045654272</v>
+        <v>3.238903045654272</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.2">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="M241">
         <f t="shared" si="4"/>
-        <v>0.54564952850342863</v>
+        <v>-0.54564952850342863</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.2">
@@ -11916,7 +11916,7 @@
       </c>
       <c r="M242">
         <f t="shared" si="4"/>
-        <v>-3.4968757629394709</v>
+        <v>3.4968757629394709</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.2">
@@ -11958,7 +11958,7 @@
       </c>
       <c r="M243">
         <f t="shared" si="4"/>
-        <v>-6.1399745941162713</v>
+        <v>6.1399745941162713</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.2">
@@ -12000,7 +12000,7 @@
       </c>
       <c r="M244">
         <f t="shared" si="4"/>
-        <v>2.8950910568237305</v>
+        <v>-2.8950910568237305</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.2">
@@ -12042,7 +12042,7 @@
       </c>
       <c r="M245">
         <f t="shared" si="4"/>
-        <v>0.80445575714112749</v>
+        <v>-0.80445575714112749</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.2">
@@ -12084,7 +12084,7 @@
       </c>
       <c r="M246">
         <f t="shared" si="4"/>
-        <v>-3.6540575027465714</v>
+        <v>3.6540575027465714</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.2">
@@ -12126,7 +12126,7 @@
       </c>
       <c r="M247">
         <f t="shared" si="4"/>
-        <v>-2.0664291381835707</v>
+        <v>2.0664291381835707</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.2">
@@ -12168,7 +12168,7 @@
       </c>
       <c r="M248">
         <f t="shared" si="4"/>
-        <v>4.7254648208618271</v>
+        <v>-4.7254648208618271</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.2">
@@ -12210,7 +12210,7 @@
       </c>
       <c r="M249">
         <f t="shared" si="4"/>
-        <v>1.3147611618042276</v>
+        <v>-1.3147611618042276</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.2">
@@ -12252,7 +12252,7 @@
       </c>
       <c r="M250">
         <f t="shared" si="4"/>
-        <v>0.72534275054932706</v>
+        <v>-0.72534275054932706</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.2">
@@ -12294,7 +12294,7 @@
       </c>
       <c r="M251">
         <f t="shared" si="4"/>
-        <v>0.60201168060302734</v>
+        <v>-0.60201168060302734</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.2">
@@ -12336,7 +12336,7 @@
       </c>
       <c r="M252">
         <f t="shared" si="4"/>
-        <v>-5.0884332656860707</v>
+        <v>5.0884332656860707</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.2">
@@ -12378,7 +12378,7 @@
       </c>
       <c r="M253">
         <f t="shared" si="4"/>
-        <v>1.125431060792792E-2</v>
+        <v>-1.125431060792792E-2</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.2">
@@ -12420,7 +12420,7 @@
       </c>
       <c r="M254">
         <f t="shared" si="4"/>
-        <v>-1.1532487869262695</v>
+        <v>1.1532487869262695</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.2">
@@ -12462,7 +12462,7 @@
       </c>
       <c r="M255">
         <f t="shared" si="4"/>
-        <v>0.66056537628172762</v>
+        <v>-0.66056537628172762</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.2">
@@ -12504,7 +12504,7 @@
       </c>
       <c r="M256">
         <f t="shared" si="4"/>
-        <v>-0.76313114166257279</v>
+        <v>0.76313114166257279</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.2">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="M257">
         <f t="shared" si="4"/>
-        <v>1.21734523773193</v>
+        <v>-1.21734523773193</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.2">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="M258">
         <f t="shared" si="4"/>
-        <v>2.1255064010620295</v>
+        <v>-2.1255064010620295</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.2">
@@ -12630,7 +12630,7 @@
       </c>
       <c r="M259">
         <f t="shared" si="4"/>
-        <v>-0.64433765411376953</v>
+        <v>0.64433765411376953</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.2">
@@ -12672,7 +12672,7 @@
       </c>
       <c r="M260">
         <f t="shared" si="4"/>
-        <v>-1.3938837051391708</v>
+        <v>1.3938837051391708</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.2">
@@ -12714,7 +12714,7 @@
       </c>
       <c r="M261">
         <f t="shared" si="4"/>
-        <v>4.8479948043823278</v>
+        <v>-4.8479948043823278</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.2">
@@ -12756,7 +12756,7 @@
       </c>
       <c r="M262">
         <f t="shared" si="4"/>
-        <v>7.7220087051391282</v>
+        <v>-7.7220087051391282</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.2">
@@ -12798,7 +12798,7 @@
       </c>
       <c r="M263">
         <f t="shared" si="4"/>
-        <v>4.9508180618286275</v>
+        <v>-4.9508180618286275</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.2">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="M264">
         <f t="shared" si="4"/>
-        <v>6.6154394149780273</v>
+        <v>-6.6154394149780273</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.2">
@@ -12882,7 +12882,7 @@
       </c>
       <c r="M265">
         <f t="shared" si="4"/>
-        <v>5.3691282272338299</v>
+        <v>-5.3691282272338299</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.2">
@@ -12924,7 +12924,7 @@
       </c>
       <c r="M266">
         <f t="shared" si="4"/>
-        <v>3.4589738845825302</v>
+        <v>-3.4589738845825302</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.2">
@@ -12966,7 +12966,7 @@
       </c>
       <c r="M267">
         <f t="shared" si="4"/>
-        <v>1.5275869369506303</v>
+        <v>-1.5275869369506303</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.2">
@@ -13008,7 +13008,7 @@
       </c>
       <c r="M268">
         <f t="shared" si="4"/>
-        <v>3.7617444992065288</v>
+        <v>-3.7617444992065288</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.2">
@@ -13050,7 +13050,7 @@
       </c>
       <c r="M269">
         <f t="shared" si="4"/>
-        <v>2.0011529922485281</v>
+        <v>-2.0011529922485281</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.2">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="M270">
         <f t="shared" si="4"/>
-        <v>5.4688177108764293</v>
+        <v>-5.4688177108764293</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.2">
@@ -13134,7 +13134,7 @@
       </c>
       <c r="M271">
         <f t="shared" si="4"/>
-        <v>6.9374570846557297</v>
+        <v>-6.9374570846557297</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.2">
@@ -13176,7 +13176,7 @@
       </c>
       <c r="M272">
         <f t="shared" si="4"/>
-        <v>3.568222999572729</v>
+        <v>-3.568222999572729</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.2">
@@ -13218,7 +13218,7 @@
       </c>
       <c r="M273">
         <f t="shared" si="4"/>
-        <v>2.8013372421264293</v>
+        <v>-2.8013372421264293</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.2">
@@ -13260,7 +13260,7 @@
       </c>
       <c r="M274">
         <f t="shared" si="4"/>
-        <v>2.3660936355590287</v>
+        <v>-2.3660936355590287</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.2">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="M275">
         <f t="shared" si="4"/>
-        <v>1.7242994308471289</v>
+        <v>-1.7242994308471289</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.2">
@@ -13344,7 +13344,7 @@
       </c>
       <c r="M276">
         <f t="shared" si="4"/>
-        <v>1.3897047042846289</v>
+        <v>-1.3897047042846289</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.2">
@@ -13386,7 +13386,7 @@
       </c>
       <c r="M277">
         <f t="shared" si="4"/>
-        <v>1.6098222732544301</v>
+        <v>-1.6098222732544301</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.2">
@@ -13428,7 +13428,7 @@
       </c>
       <c r="M278">
         <f t="shared" si="4"/>
-        <v>4.0369539260864293</v>
+        <v>-4.0369539260864293</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.2">
@@ -13469,8 +13469,8 @@
         <v>296</v>
       </c>
       <c r="M279">
-        <f>F279-J$349</f>
-        <v>-3.2244071960449006</v>
+        <f>J$349-F279</f>
+        <v>3.2244071960449006</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.2">
@@ -13511,8 +13511,8 @@
         <v>296</v>
       </c>
       <c r="M280">
-        <f t="shared" ref="M280:M343" si="5">F280-J$349</f>
-        <v>-1.672124862670902</v>
+        <f>J$349-F280</f>
+        <v>1.672124862670902</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.2">
@@ -13553,8 +13553,8 @@
         <v>296</v>
       </c>
       <c r="M281">
-        <f t="shared" si="5"/>
-        <v>-0.39640045166019888</v>
+        <f t="shared" ref="M281:M344" si="5">J$349-F281</f>
+        <v>0.39640045166019888</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.2">
@@ -13596,7 +13596,7 @@
       </c>
       <c r="M282">
         <f t="shared" si="5"/>
-        <v>-4.8849830627441015</v>
+        <v>4.8849830627441015</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.2">
@@ -13638,7 +13638,7 @@
       </c>
       <c r="M283">
         <f t="shared" si="5"/>
-        <v>1.8729095458984304</v>
+        <v>-1.8729095458984304</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.2">
@@ -13680,7 +13680,7 @@
       </c>
       <c r="M284">
         <f t="shared" si="5"/>
-        <v>-1.0098419189453196</v>
+        <v>1.0098419189453196</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.2">
@@ -13722,7 +13722,7 @@
       </c>
       <c r="M285">
         <f t="shared" si="5"/>
-        <v>4.3430004119873082</v>
+        <v>-4.3430004119873082</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.2">
@@ -13764,7 +13764,7 @@
       </c>
       <c r="M286">
         <f t="shared" si="5"/>
-        <v>-2.5320606231689489</v>
+        <v>2.5320606231689489</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.2">
@@ -13806,7 +13806,7 @@
       </c>
       <c r="M287">
         <f t="shared" si="5"/>
-        <v>-4.6131095886230504</v>
+        <v>4.6131095886230504</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.2">
@@ -13848,7 +13848,7 @@
       </c>
       <c r="M288">
         <f t="shared" si="5"/>
-        <v>-0.55111694335937145</v>
+        <v>0.55111694335937145</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.2">
@@ -13890,7 +13890,7 @@
       </c>
       <c r="M289">
         <f t="shared" si="5"/>
-        <v>8.0455093383789027</v>
+        <v>-8.0455093383789027</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.2">
@@ -13932,7 +13932,7 @@
       </c>
       <c r="M290">
         <f t="shared" si="5"/>
-        <v>-1.94549560546875E-3</v>
+        <v>1.94549560546875E-3</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.2">
@@ -13974,7 +13974,7 @@
       </c>
       <c r="M291">
         <f t="shared" si="5"/>
-        <v>6.3188819885253906</v>
+        <v>-6.3188819885253906</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.2">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="M292">
         <f t="shared" si="5"/>
-        <v>0.43148612976073863</v>
+        <v>-0.43148612976073863</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.2">
@@ -14058,7 +14058,7 @@
       </c>
       <c r="M293">
         <f t="shared" si="5"/>
-        <v>2.7229728698730398</v>
+        <v>-2.7229728698730398</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.2">
@@ -14100,7 +14100,7 @@
       </c>
       <c r="M294">
         <f t="shared" si="5"/>
-        <v>-3.1718902587890696</v>
+        <v>3.1718902587890696</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.2">
@@ -14142,7 +14142,7 @@
       </c>
       <c r="M295">
         <f t="shared" si="5"/>
-        <v>5.6855964660644496</v>
+        <v>-5.6855964660644496</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.2">
@@ -14184,7 +14184,7 @@
       </c>
       <c r="M296">
         <f t="shared" si="5"/>
-        <v>-5.3682651519775497</v>
+        <v>5.3682651519775497</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.2">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="M297">
         <f t="shared" si="5"/>
-        <v>-1.6796607971191406</v>
+        <v>1.6796607971191406</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.2">
@@ -14268,7 +14268,7 @@
       </c>
       <c r="M298">
         <f t="shared" si="5"/>
-        <v>2.81317138671875</v>
+        <v>-2.81317138671875</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.2">
@@ -14310,7 +14310,7 @@
       </c>
       <c r="M299">
         <f t="shared" si="5"/>
-        <v>-3.4102039337158203</v>
+        <v>3.4102039337158203</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.2">
@@ -14352,7 +14352,7 @@
       </c>
       <c r="M300">
         <f t="shared" si="5"/>
-        <v>2.6426887512206996</v>
+        <v>-2.6426887512206996</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.2">
@@ -14394,7 +14394,7 @@
       </c>
       <c r="M301">
         <f t="shared" si="5"/>
-        <v>4.5945396423339808</v>
+        <v>-4.5945396423339808</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.2">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="M302">
         <f t="shared" si="5"/>
-        <v>1.2702331542968679</v>
+        <v>-1.2702331542968679</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.2">
@@ -14478,7 +14478,7 @@
       </c>
       <c r="M303">
         <f t="shared" si="5"/>
-        <v>-2.2957458496093714</v>
+        <v>2.2957458496093714</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.2">
@@ -14520,7 +14520,7 @@
       </c>
       <c r="M304">
         <f t="shared" si="5"/>
-        <v>2.8831939697265589</v>
+        <v>-2.8831939697265589</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.2">
@@ -14562,7 +14562,7 @@
       </c>
       <c r="M305">
         <f t="shared" si="5"/>
-        <v>0.15147590637207031</v>
+        <v>-0.15147590637207031</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.2">
@@ -14604,7 +14604,7 @@
       </c>
       <c r="M306">
         <f t="shared" si="5"/>
-        <v>3.0275859832763601</v>
+        <v>-3.0275859832763601</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.2">
@@ -14646,7 +14646,7 @@
       </c>
       <c r="M307">
         <f t="shared" si="5"/>
-        <v>4.21319580078125</v>
+        <v>-4.21319580078125</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.2">
@@ -14688,7 +14688,7 @@
       </c>
       <c r="M308">
         <f t="shared" si="5"/>
-        <v>2.7230720520019496</v>
+        <v>-2.7230720520019496</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.2">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="M309">
         <f t="shared" si="5"/>
-        <v>7.4615669250488175</v>
+        <v>-7.4615669250488175</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.2">
@@ -14772,7 +14772,7 @@
       </c>
       <c r="M310">
         <f t="shared" si="5"/>
-        <v>-1.388372421264652</v>
+        <v>1.388372421264652</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.2">
@@ -14814,7 +14814,7 @@
       </c>
       <c r="M311">
         <f t="shared" si="5"/>
-        <v>2.3358955383300781</v>
+        <v>-2.3358955383300781</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.2">
@@ -14856,7 +14856,7 @@
       </c>
       <c r="M312">
         <f t="shared" si="5"/>
-        <v>6.8530673980712891</v>
+        <v>-6.8530673980712891</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.2">
@@ -14898,7 +14898,7 @@
       </c>
       <c r="M313">
         <f t="shared" si="5"/>
-        <v>-0.93583297729492188</v>
+        <v>0.93583297729492188</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.2">
@@ -14940,7 +14940,7 @@
       </c>
       <c r="M314">
         <f t="shared" si="5"/>
-        <v>2.7871761322021484</v>
+        <v>-2.7871761322021484</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.2">
@@ -14982,7 +14982,7 @@
       </c>
       <c r="M315">
         <f t="shared" si="5"/>
-        <v>-3.3404731750488317</v>
+        <v>3.3404731750488317</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.2">
@@ -15024,7 +15024,7 @@
       </c>
       <c r="M316">
         <f t="shared" si="5"/>
-        <v>-2.695293426513679</v>
+        <v>2.695293426513679</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.2">
@@ -15066,7 +15066,7 @@
       </c>
       <c r="M317">
         <f t="shared" si="5"/>
-        <v>3.0327949523925781</v>
+        <v>-3.0327949523925781</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.2">
@@ -15108,7 +15108,7 @@
       </c>
       <c r="M318">
         <f t="shared" si="5"/>
-        <v>2.7753124237060511</v>
+        <v>-2.7753124237060511</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.2">
@@ -15150,7 +15150,7 @@
       </c>
       <c r="M319">
         <f t="shared" si="5"/>
-        <v>2.1733055114746094</v>
+        <v>-2.1733055114746094</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.2">
@@ -15192,7 +15192,7 @@
       </c>
       <c r="M320">
         <f t="shared" si="5"/>
-        <v>3.0982742309570312</v>
+        <v>-3.0982742309570312</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.2">
@@ -15234,7 +15234,7 @@
       </c>
       <c r="M321">
         <f t="shared" si="5"/>
-        <v>0.11160278320311789</v>
+        <v>-0.11160278320311789</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.2">
@@ -15276,7 +15276,7 @@
       </c>
       <c r="M322">
         <f t="shared" si="5"/>
-        <v>-0.35548973083496094</v>
+        <v>0.35548973083496094</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.2">
@@ -15318,7 +15318,7 @@
       </c>
       <c r="M323">
         <f t="shared" si="5"/>
-        <v>2.1983318328857386</v>
+        <v>-2.1983318328857386</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.2">
@@ -15360,7 +15360,7 @@
       </c>
       <c r="M324">
         <f t="shared" si="5"/>
-        <v>-0.27576065063476918</v>
+        <v>0.27576065063476918</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.2">
@@ -15402,7 +15402,7 @@
       </c>
       <c r="M325">
         <f t="shared" si="5"/>
-        <v>-1.5918521881103516</v>
+        <v>1.5918521881103516</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.2">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="M326">
         <f t="shared" si="5"/>
-        <v>2.3469676971435511</v>
+        <v>-2.3469676971435511</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.2">
@@ -15486,7 +15486,7 @@
       </c>
       <c r="M327">
         <f t="shared" si="5"/>
-        <v>-0.92861938476563211</v>
+        <v>0.92861938476563211</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.2">
@@ -15528,7 +15528,7 @@
       </c>
       <c r="M328">
         <f t="shared" si="5"/>
-        <v>0.47398757934569957</v>
+        <v>-0.47398757934569957</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.2">
@@ -15570,7 +15570,7 @@
       </c>
       <c r="M329">
         <f t="shared" si="5"/>
-        <v>0.42215538024901988</v>
+        <v>-0.42215538024901988</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.2">
@@ -15612,7 +15612,7 @@
       </c>
       <c r="M330">
         <f t="shared" si="5"/>
-        <v>-6.6622467041015696</v>
+        <v>6.6622467041015696</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.2">
@@ -15654,7 +15654,7 @@
       </c>
       <c r="M331">
         <f t="shared" si="5"/>
-        <v>-1.3828201293945312</v>
+        <v>1.3828201293945312</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.2">
@@ -15696,7 +15696,7 @@
       </c>
       <c r="M332">
         <f t="shared" si="5"/>
-        <v>-0.47655296325683949</v>
+        <v>0.47655296325683949</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.2">
@@ -15738,7 +15738,7 @@
       </c>
       <c r="M333">
         <f t="shared" si="5"/>
-        <v>3.3274173736572195</v>
+        <v>-3.3274173736572195</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.2">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="M334">
         <f t="shared" si="5"/>
-        <v>1.8244037628173793</v>
+        <v>-1.8244037628173793</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.2">
@@ -15822,7 +15822,7 @@
       </c>
       <c r="M335">
         <f t="shared" si="5"/>
-        <v>2.7870864868163991</v>
+        <v>-2.7870864868163991</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.2">
@@ -15864,7 +15864,7 @@
       </c>
       <c r="M336">
         <f t="shared" si="5"/>
-        <v>1.4780712127685511</v>
+        <v>-1.4780712127685511</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.2">
@@ -15906,7 +15906,7 @@
       </c>
       <c r="M337">
         <f t="shared" si="5"/>
-        <v>-0.26850509643555043</v>
+        <v>0.26850509643555043</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.2">
@@ -15948,7 +15948,7 @@
       </c>
       <c r="M338">
         <f t="shared" si="5"/>
-        <v>0.95068359375</v>
+        <v>-0.95068359375</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.2">
@@ -15990,7 +15990,7 @@
       </c>
       <c r="M339">
         <f t="shared" si="5"/>
-        <v>2.9708328247070312</v>
+        <v>-2.9708328247070312</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.2">
@@ -16032,7 +16032,7 @@
       </c>
       <c r="M340">
         <f t="shared" si="5"/>
-        <v>0.96120262145996094</v>
+        <v>-0.96120262145996094</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.2">
@@ -16074,7 +16074,7 @@
       </c>
       <c r="M341">
         <f t="shared" si="5"/>
-        <v>-1.3720188140869212</v>
+        <v>1.3720188140869212</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.2">
@@ -16116,7 +16116,7 @@
       </c>
       <c r="M342">
         <f t="shared" si="5"/>
-        <v>4.8067779541015589</v>
+        <v>-4.8067779541015589</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.2">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="M343">
         <f t="shared" si="5"/>
-        <v>1.5409240722656286</v>
+        <v>-1.5409240722656286</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.2">
@@ -16199,8 +16199,8 @@
         <v>296</v>
       </c>
       <c r="M344">
-        <f t="shared" ref="M344:M407" si="6">F344-J$349</f>
-        <v>-5.90435791015625</v>
+        <f t="shared" si="5"/>
+        <v>5.90435791015625</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.2">
@@ -16241,8 +16241,8 @@
         <v>296</v>
       </c>
       <c r="M345">
-        <f t="shared" si="6"/>
-        <v>-9.8798751831051135E-2</v>
+        <f t="shared" ref="M345:M408" si="6">J$349-F345</f>
+        <v>9.8798751831051135E-2</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.2">
@@ -16284,7 +16284,7 @@
       </c>
       <c r="M346">
         <f t="shared" si="6"/>
-        <v>1.6942939758300781</v>
+        <v>-1.6942939758300781</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.2">
@@ -16326,7 +16326,7 @@
       </c>
       <c r="M347">
         <f t="shared" si="6"/>
-        <v>2.5354728698730398</v>
+        <v>-2.5354728698730398</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.2">
@@ -16368,7 +16368,7 @@
       </c>
       <c r="M348">
         <f t="shared" si="6"/>
-        <v>0.48565864562987926</v>
+        <v>-0.48565864562987926</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.2">
@@ -16410,7 +16410,7 @@
       </c>
       <c r="M349">
         <f t="shared" si="6"/>
-        <v>-2.8913803100586009</v>
+        <v>2.8913803100586009</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.2">
@@ -16452,7 +16452,7 @@
       </c>
       <c r="M350">
         <f t="shared" si="6"/>
-        <v>-0.16055679321290128</v>
+        <v>0.16055679321290128</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.2">
@@ -16494,7 +16494,7 @@
       </c>
       <c r="M351">
         <f t="shared" si="6"/>
-        <v>-0.34341430664060013</v>
+        <v>0.34341430664060013</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.2">
@@ -16536,7 +16536,7 @@
       </c>
       <c r="M352">
         <f t="shared" si="6"/>
-        <v>1.1962566375731996</v>
+        <v>-1.1962566375731996</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
@@ -16578,7 +16578,7 @@
       </c>
       <c r="M353">
         <f t="shared" si="6"/>
-        <v>-0.19798278808590197</v>
+        <v>0.19798278808590197</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.2">
@@ -16620,7 +16620,7 @@
       </c>
       <c r="M354">
         <f t="shared" si="6"/>
-        <v>2.3970775604248011</v>
+        <v>-2.3970775604248011</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.2">
@@ -16662,7 +16662,7 @@
       </c>
       <c r="M355">
         <f t="shared" si="6"/>
-        <v>-2.1630001068115305</v>
+        <v>2.1630001068115305</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.2">
@@ -16704,7 +16704,7 @@
       </c>
       <c r="M356">
         <f t="shared" si="6"/>
-        <v>6.9178104400634695</v>
+        <v>-6.9178104400634695</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.2">
@@ -16746,7 +16746,7 @@
       </c>
       <c r="M357">
         <f t="shared" si="6"/>
-        <v>-0.33024978637696023</v>
+        <v>0.33024978637696023</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.2">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="M358">
         <f t="shared" si="6"/>
-        <v>3.7233295440673793</v>
+        <v>-3.7233295440673793</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.2">
@@ -16830,7 +16830,7 @@
       </c>
       <c r="M359">
         <f t="shared" si="6"/>
-        <v>-5.1506900787353516</v>
+        <v>5.1506900787353516</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.2">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="M360">
         <f t="shared" si="6"/>
-        <v>-3.6457405090332102</v>
+        <v>3.6457405090332102</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.2">
@@ -16914,7 +16914,7 @@
       </c>
       <c r="M361">
         <f t="shared" si="6"/>
-        <v>2.0834655761718679</v>
+        <v>-2.0834655761718679</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.2">
@@ -16956,7 +16956,7 @@
       </c>
       <c r="M362">
         <f t="shared" si="6"/>
-        <v>-0.75293922424317117</v>
+        <v>0.75293922424317117</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.2">
@@ -16998,7 +16998,7 @@
       </c>
       <c r="M363">
         <f t="shared" si="6"/>
-        <v>1.7697906494140589</v>
+        <v>-1.7697906494140589</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.2">
@@ -17040,7 +17040,7 @@
       </c>
       <c r="M364">
         <f t="shared" si="6"/>
-        <v>-2.0087852478027415</v>
+        <v>2.0087852478027415</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.2">
@@ -17082,7 +17082,7 @@
       </c>
       <c r="M365">
         <f t="shared" si="6"/>
-        <v>-0.10768127441406961</v>
+        <v>0.10768127441406961</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.2">
@@ -17124,7 +17124,7 @@
       </c>
       <c r="M366">
         <f t="shared" si="6"/>
-        <v>-4.4394092559814489</v>
+        <v>4.4394092559814489</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.2">
@@ -17166,7 +17166,7 @@
       </c>
       <c r="M367">
         <f t="shared" si="6"/>
-        <v>-2.6716327667236399</v>
+        <v>2.6716327667236399</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.2">
@@ -17208,7 +17208,7 @@
       </c>
       <c r="M368">
         <f t="shared" si="6"/>
-        <v>-3.6224117279052805</v>
+        <v>3.6224117279052805</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.2">
@@ -17250,7 +17250,7 @@
       </c>
       <c r="M369">
         <f t="shared" si="6"/>
-        <v>-2.0296344757080114</v>
+        <v>2.0296344757080114</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.2">
@@ -17292,7 +17292,7 @@
       </c>
       <c r="M370">
         <f t="shared" si="6"/>
-        <v>-2.1385955810546911</v>
+        <v>2.1385955810546911</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.2">
@@ -17334,7 +17334,7 @@
       </c>
       <c r="M371">
         <f t="shared" si="6"/>
-        <v>-2.1238307952880895</v>
+        <v>2.1238307952880895</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.2">
@@ -17376,7 +17376,7 @@
       </c>
       <c r="M372">
         <f t="shared" si="6"/>
-        <v>2.1726016998290909</v>
+        <v>-2.1726016998290909</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.2">
@@ -17418,7 +17418,7 @@
       </c>
       <c r="M373">
         <f t="shared" si="6"/>
-        <v>5.078510284423821</v>
+        <v>-5.078510284423821</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.2">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="M374">
         <f t="shared" si="6"/>
-        <v>0.93490791320800071</v>
+        <v>-0.93490791320800071</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.2">
@@ -17502,7 +17502,7 @@
       </c>
       <c r="M375">
         <f t="shared" si="6"/>
-        <v>-3.6448764801025497</v>
+        <v>3.6448764801025497</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.2">
@@ -17544,7 +17544,7 @@
       </c>
       <c r="M376">
         <f t="shared" si="6"/>
-        <v>0.83694267272948863</v>
+        <v>-0.83694267272948863</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.2">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="M377">
         <f t="shared" si="6"/>
-        <v>1.5161590576171804</v>
+        <v>-1.5161590576171804</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.2">
@@ -17628,7 +17628,7 @@
       </c>
       <c r="M378">
         <f t="shared" si="6"/>
-        <v>0.14973831176757812</v>
+        <v>-0.14973831176757812</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.2">
@@ -17670,7 +17670,7 @@
       </c>
       <c r="M379">
         <f t="shared" si="6"/>
-        <v>0.4870223999023402</v>
+        <v>-0.4870223999023402</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.2">
@@ -17712,7 +17712,7 @@
       </c>
       <c r="M380">
         <f t="shared" si="6"/>
-        <v>-1.1087856292724609</v>
+        <v>1.1087856292724609</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.2">
@@ -17754,7 +17754,7 @@
       </c>
       <c r="M381">
         <f t="shared" si="6"/>
-        <v>-1.4146728515625</v>
+        <v>1.4146728515625</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.2">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="M382">
         <f t="shared" si="6"/>
-        <v>-1.4305992126464915</v>
+        <v>1.4305992126464915</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.2">
@@ -17838,7 +17838,7 @@
       </c>
       <c r="M383">
         <f t="shared" si="6"/>
-        <v>3.4106407165527308</v>
+        <v>-3.4106407165527308</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.2">
@@ -17880,7 +17880,7 @@
       </c>
       <c r="M384">
         <f t="shared" si="6"/>
-        <v>-7.1758193969726598</v>
+        <v>7.1758193969726598</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.2">
@@ -17922,7 +17922,7 @@
       </c>
       <c r="M385">
         <f t="shared" si="6"/>
-        <v>-4.1039943695068395</v>
+        <v>4.1039943695068395</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.2">
@@ -17964,7 +17964,7 @@
       </c>
       <c r="M386">
         <f t="shared" si="6"/>
-        <v>1.6933803558349609</v>
+        <v>-1.6933803558349609</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.2">
@@ -18006,7 +18006,7 @@
       </c>
       <c r="M387">
         <f t="shared" si="6"/>
-        <v>4.3742942810058594</v>
+        <v>-4.3742942810058594</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.2">
@@ -18048,7 +18048,7 @@
       </c>
       <c r="M388">
         <f t="shared" si="6"/>
-        <v>-1.4074211120605504</v>
+        <v>1.4074211120605504</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.2">
@@ -18090,7 +18090,7 @@
       </c>
       <c r="M389">
         <f t="shared" si="6"/>
-        <v>-0.89199447631835938</v>
+        <v>0.89199447631835938</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.2">
@@ -18132,7 +18132,7 @@
       </c>
       <c r="M390">
         <f t="shared" si="6"/>
-        <v>-2.5206604003906321</v>
+        <v>2.5206604003906321</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.2">
@@ -18174,7 +18174,7 @@
       </c>
       <c r="M391">
         <f t="shared" si="6"/>
-        <v>0.1579818725585902</v>
+        <v>-0.1579818725585902</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.2">
@@ -18216,7 +18216,7 @@
       </c>
       <c r="M392">
         <f t="shared" si="6"/>
-        <v>-0.3323745727539098</v>
+        <v>0.3323745727539098</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.2">
@@ -18258,7 +18258,7 @@
       </c>
       <c r="M393">
         <f t="shared" si="6"/>
-        <v>-3.6764640808105504</v>
+        <v>3.6764640808105504</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.2">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="M394">
         <f t="shared" si="6"/>
-        <v>-1.1239833831787109</v>
+        <v>1.1239833831787109</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.2">
@@ -18342,7 +18342,7 @@
       </c>
       <c r="M395">
         <f t="shared" si="6"/>
-        <v>-3.3916015625</v>
+        <v>3.3916015625</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.2">
@@ -18384,7 +18384,7 @@
       </c>
       <c r="M396">
         <f t="shared" si="6"/>
-        <v>-3.4941730499267614</v>
+        <v>3.4941730499267614</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.2">
@@ -18426,7 +18426,7 @@
       </c>
       <c r="M397">
         <f t="shared" si="6"/>
-        <v>0.9389877319335902</v>
+        <v>-0.9389877319335902</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.2">
@@ -18468,7 +18468,7 @@
       </c>
       <c r="M398">
         <f t="shared" si="6"/>
-        <v>-5.5938224792480504</v>
+        <v>5.5938224792480504</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.2">
@@ -18510,7 +18510,7 @@
       </c>
       <c r="M399">
         <f t="shared" si="6"/>
-        <v>0.41237831115721946</v>
+        <v>-0.41237831115721946</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.2">
@@ -18552,7 +18552,7 @@
       </c>
       <c r="M400">
         <f t="shared" si="6"/>
-        <v>-0.58268547058105113</v>
+        <v>0.58268547058105113</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.2">
@@ -18594,7 +18594,7 @@
       </c>
       <c r="M401">
         <f t="shared" si="6"/>
-        <v>-3.2607765197753906</v>
+        <v>3.2607765197753906</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.2">
@@ -18636,7 +18636,7 @@
       </c>
       <c r="M402">
         <f t="shared" si="6"/>
-        <v>5.9358596801750707E-2</v>
+        <v>-5.9358596801750707E-2</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.2">
@@ -18678,7 +18678,7 @@
       </c>
       <c r="M403">
         <f t="shared" si="6"/>
-        <v>5.8305397033691406</v>
+        <v>-5.8305397033691406</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.2">
@@ -18720,7 +18720,7 @@
       </c>
       <c r="M404">
         <f t="shared" si="6"/>
-        <v>7.9345703125E-3</v>
+        <v>-7.9345703125E-3</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.2">
@@ -18762,7 +18762,7 @@
       </c>
       <c r="M405">
         <f t="shared" si="6"/>
-        <v>0.19626235961914062</v>
+        <v>-0.19626235961914062</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.2">
@@ -18804,7 +18804,7 @@
       </c>
       <c r="M406">
         <f t="shared" si="6"/>
-        <v>-0.25176429748535156</v>
+        <v>0.25176429748535156</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.2">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="M407">
         <f t="shared" si="6"/>
-        <v>-0.39883613586426137</v>
+        <v>0.39883613586426137</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.2">
@@ -18887,8 +18887,8 @@
         <v>296</v>
       </c>
       <c r="M408">
-        <f t="shared" ref="M408:M425" si="7">F408-J$349</f>
-        <v>3.2411537170410085</v>
+        <f t="shared" si="6"/>
+        <v>-3.2411537170410085</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.2">
@@ -18929,8 +18929,8 @@
         <v>296</v>
       </c>
       <c r="M409">
-        <f t="shared" si="7"/>
-        <v>6.6711559295654297</v>
+        <f t="shared" ref="M409:M425" si="7">J$349-F409</f>
+        <v>-6.6711559295654297</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.2">
@@ -18972,7 +18972,7 @@
       </c>
       <c r="M410">
         <f t="shared" si="7"/>
-        <v>3.1343669891357386</v>
+        <v>-3.1343669891357386</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.2">
@@ -19014,7 +19014,7 @@
       </c>
       <c r="M411">
         <f t="shared" si="7"/>
-        <v>2.9564075469970703</v>
+        <v>-2.9564075469970703</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.2">
@@ -19056,7 +19056,7 @@
       </c>
       <c r="M412">
         <f t="shared" si="7"/>
-        <v>2.72314453125</v>
+        <v>-2.72314453125</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.2">
@@ -19098,7 +19098,7 @@
       </c>
       <c r="M413">
         <f t="shared" si="7"/>
-        <v>-0.51876068115235086</v>
+        <v>0.51876068115235086</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.2">
@@ -19140,7 +19140,7 @@
       </c>
       <c r="M414">
         <f t="shared" si="7"/>
-        <v>0.79427146911621094</v>
+        <v>-0.79427146911621094</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.2">
@@ -19182,7 +19182,7 @@
       </c>
       <c r="M415">
         <f t="shared" si="7"/>
-        <v>1.7001838684081996</v>
+        <v>-1.7001838684081996</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.2">
@@ -19224,7 +19224,7 @@
       </c>
       <c r="M416">
         <f t="shared" si="7"/>
-        <v>1.1074619293212891</v>
+        <v>-1.1074619293212891</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.2">
@@ -19266,7 +19266,7 @@
       </c>
       <c r="M417">
         <f t="shared" si="7"/>
-        <v>-2.2424259185791016</v>
+        <v>2.2424259185791016</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.2">
@@ -19308,7 +19308,7 @@
       </c>
       <c r="M418">
         <f t="shared" si="7"/>
-        <v>-2.5131778717041016</v>
+        <v>2.5131778717041016</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.2">
@@ -19350,7 +19350,7 @@
       </c>
       <c r="M419">
         <f t="shared" si="7"/>
-        <v>-2.6279411315918004</v>
+        <v>2.6279411315918004</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.2">
@@ -19392,7 +19392,7 @@
       </c>
       <c r="M420">
         <f t="shared" si="7"/>
-        <v>1.2563705444335902</v>
+        <v>-1.2563705444335902</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.2">
@@ -19434,7 +19434,7 @@
       </c>
       <c r="M421">
         <f t="shared" si="7"/>
-        <v>6.1164951324462891</v>
+        <v>-6.1164951324462891</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.2">
@@ -19476,7 +19476,7 @@
       </c>
       <c r="M422">
         <f t="shared" si="7"/>
-        <v>-4.268413543701179</v>
+        <v>4.268413543701179</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.2">
@@ -19518,7 +19518,7 @@
       </c>
       <c r="M423">
         <f t="shared" si="7"/>
-        <v>-2.2868309020996094</v>
+        <v>2.2868309020996094</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.2">
@@ -19560,7 +19560,7 @@
       </c>
       <c r="M424">
         <f t="shared" si="7"/>
-        <v>-0.96148109436035156</v>
+        <v>0.96148109436035156</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.2">
@@ -19602,7 +19602,7 @@
       </c>
       <c r="M425">
         <f t="shared" si="7"/>
-        <v>-0.80816841125488992</v>
+        <v>0.80816841125488992</v>
       </c>
     </row>
   </sheetData>
